--- a/DDAf_2024_Groupements_de_pays.xlsx
+++ b/DDAf_2024_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E910ED7A-FE6F-45D5-ACF7-C1C2932170B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEEDBC-21E3-48CA-B570-D2E0EEC31427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="0" windowWidth="19200" windowHeight="21150" xr2:uid="{4E226C1C-0767-4937-86D8-C4DA8EEE9926}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DE55C32A-3508-449D-A2E8-52F34801CE48}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5252" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5251" uniqueCount="476">
   <si>
     <t>Liste des pays et groupes de pays utilisés pour agréger les indicateurs</t>
   </si>
@@ -1460,13 +1460,10 @@
     <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2024-fr.</t>
   </si>
   <si>
     <t>Pour télécharger toutes les données de l'annexe statistique des Dynamiques du développement en Afrique au format Excel, y compris les données historiques remontant à 2000, cliquez ici.</t>
-  </si>
-  <si>
-    <t>Pour télécharger l'intégralité de l'ensemble de données sous forme de fichier plat au format CSV compressé, cliquez ici.</t>
   </si>
 </sst>
 </file>
@@ -1477,7 +1474,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1496,6 +1493,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1564,7 +1569,7 @@
       <i/>
       <u/>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1579,12 +1584,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFBE3DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1596,9 +1601,20 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF0F793D"/>
+        <color rgb="FFD42C2D"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1627,89 +1643,89 @@
   </cellStyleXfs>
   <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2025,20 +2041,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3781697-DBAE-47E6-A899-ED07026B9D55}">
-  <dimension ref="A1:AA214"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72FA33F-DC8F-4EED-BA8D-FF80EB53D9D3}">
+  <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="12" width="18.140625" style="29" customWidth="1"/>
-    <col min="13" max="27" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.1796875" customWidth="1"/>
+    <col min="3" max="12" width="18.1796875" style="29" customWidth="1"/>
+    <col min="13" max="27" width="18.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -2066,7 +2082,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2096,7 +2112,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2179,7 +2195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -2262,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -2345,7 +2361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>56</v>
       </c>
@@ -2428,7 +2444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
@@ -2511,7 +2527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -2594,7 +2610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -2677,7 +2693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -2760,7 +2776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -2843,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>79</v>
       </c>
@@ -2926,7 +2942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>83</v>
       </c>
@@ -3009,7 +3025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="10" t="s">
         <v>86</v>
       </c>
@@ -3092,7 +3108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -3175,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
@@ -3258,7 +3274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
         <v>95</v>
       </c>
@@ -3341,7 +3357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
         <v>100</v>
       </c>
@@ -3424,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>102</v>
       </c>
@@ -3507,7 +3523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>104</v>
       </c>
@@ -3590,7 +3606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
         <v>106</v>
       </c>
@@ -3673,7 +3689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="10" t="s">
         <v>108</v>
       </c>
@@ -3756,7 +3772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>110</v>
       </c>
@@ -3839,7 +3855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="10" t="s">
         <v>112</v>
       </c>
@@ -3922,7 +3938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -4005,7 +4021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="10" t="s">
         <v>116</v>
       </c>
@@ -4088,7 +4104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="10" t="s">
         <v>118</v>
       </c>
@@ -4171,7 +4187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>120</v>
       </c>
@@ -4254,7 +4270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="10" t="s">
         <v>122</v>
       </c>
@@ -4337,7 +4353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="10" t="s">
         <v>125</v>
       </c>
@@ -4420,7 +4436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>127</v>
       </c>
@@ -4503,7 +4519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="10" t="s">
         <v>129</v>
       </c>
@@ -4586,7 +4602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>131</v>
       </c>
@@ -4669,7 +4685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
         <v>133</v>
       </c>
@@ -4752,7 +4768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="10" t="s">
         <v>135</v>
       </c>
@@ -4835,7 +4851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="10" t="s">
         <v>137</v>
       </c>
@@ -4918,7 +4934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="10" t="s">
         <v>139</v>
       </c>
@@ -5001,7 +5017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="10" t="s">
         <v>141</v>
       </c>
@@ -5084,7 +5100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
         <v>143</v>
       </c>
@@ -5167,7 +5183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="10" t="s">
         <v>145</v>
       </c>
@@ -5250,7 +5266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>147</v>
       </c>
@@ -5333,7 +5349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
         <v>149</v>
       </c>
@@ -5416,7 +5432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>152</v>
       </c>
@@ -5499,7 +5515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="10" t="s">
         <v>154</v>
       </c>
@@ -5582,7 +5598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="10" t="s">
         <v>156</v>
       </c>
@@ -5665,7 +5681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>158</v>
       </c>
@@ -5748,7 +5764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>160</v>
       </c>
@@ -5831,7 +5847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
@@ -5914,7 +5930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="10" t="s">
         <v>164</v>
       </c>
@@ -5997,7 +6013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="10" t="s">
         <v>167</v>
       </c>
@@ -6080,7 +6096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
         <v>169</v>
       </c>
@@ -6163,7 +6179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
         <v>171</v>
       </c>
@@ -6246,7 +6262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="10" t="s">
         <v>173</v>
       </c>
@@ -6329,7 +6345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="10" t="s">
         <v>177</v>
       </c>
@@ -6412,7 +6428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="10" t="s">
         <v>179</v>
       </c>
@@ -6495,7 +6511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="10" t="s">
         <v>181</v>
       </c>
@@ -6578,7 +6594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
         <v>183</v>
       </c>
@@ -6661,7 +6677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="10" t="s">
         <v>185</v>
       </c>
@@ -6744,7 +6760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="10" t="s">
         <v>187</v>
       </c>
@@ -6827,7 +6843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="10" t="s">
         <v>189</v>
       </c>
@@ -6910,7 +6926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="10" t="s">
         <v>191</v>
       </c>
@@ -6993,7 +7009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="10" t="s">
         <v>193</v>
       </c>
@@ -7076,7 +7092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="10" t="s">
         <v>195</v>
       </c>
@@ -7159,7 +7175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="10" t="s">
         <v>197</v>
       </c>
@@ -7242,7 +7258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="10" t="s">
         <v>199</v>
       </c>
@@ -7325,7 +7341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="10" t="s">
         <v>201</v>
       </c>
@@ -7408,7 +7424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="10" t="s">
         <v>203</v>
       </c>
@@ -7491,7 +7507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
@@ -7574,7 +7590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="10" t="s">
         <v>207</v>
       </c>
@@ -7657,7 +7673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="10" t="s">
         <v>209</v>
       </c>
@@ -7740,7 +7756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="10" t="s">
         <v>211</v>
       </c>
@@ -7821,7 +7837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
@@ -7904,7 +7920,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="10" t="s">
         <v>215</v>
       </c>
@@ -7987,7 +8003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="10" t="s">
         <v>217</v>
       </c>
@@ -8070,7 +8086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="10" t="s">
         <v>219</v>
       </c>
@@ -8153,7 +8169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="10" t="s">
         <v>221</v>
       </c>
@@ -8236,7 +8252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="10" t="s">
         <v>223</v>
       </c>
@@ -8319,7 +8335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="10" t="s">
         <v>225</v>
       </c>
@@ -8402,7 +8418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="10" t="s">
         <v>227</v>
       </c>
@@ -8485,7 +8501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="10" t="s">
         <v>229</v>
       </c>
@@ -8568,7 +8584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="10" t="s">
         <v>231</v>
       </c>
@@ -8651,7 +8667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="10" t="s">
         <v>233</v>
       </c>
@@ -8734,7 +8750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="10" t="s">
         <v>235</v>
       </c>
@@ -8817,7 +8833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="10" t="s">
         <v>237</v>
       </c>
@@ -8900,7 +8916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="10" t="s">
         <v>239</v>
       </c>
@@ -8983,7 +8999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="10" t="s">
         <v>241</v>
       </c>
@@ -9066,7 +9082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="10" t="s">
         <v>243</v>
       </c>
@@ -9149,7 +9165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="10" t="s">
         <v>245</v>
       </c>
@@ -9232,7 +9248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="10" t="s">
         <v>247</v>
       </c>
@@ -9315,7 +9331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="10" t="s">
         <v>249</v>
       </c>
@@ -9398,7 +9414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="10" t="s">
         <v>251</v>
       </c>
@@ -9481,7 +9497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="10" t="s">
         <v>253</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="10" t="s">
         <v>255</v>
       </c>
@@ -9647,7 +9663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="10" t="s">
         <v>257</v>
       </c>
@@ -9730,7 +9746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="10" t="s">
         <v>259</v>
       </c>
@@ -9813,7 +9829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="10" t="s">
         <v>261</v>
       </c>
@@ -9896,7 +9912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="10" t="s">
         <v>263</v>
       </c>
@@ -9979,7 +9995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="10" t="s">
         <v>265</v>
       </c>
@@ -10062,7 +10078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="10" t="s">
         <v>267</v>
       </c>
@@ -10145,7 +10161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="10" t="s">
         <v>269</v>
       </c>
@@ -10228,7 +10244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="10" t="s">
         <v>271</v>
       </c>
@@ -10311,7 +10327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="10" t="s">
         <v>273</v>
       </c>
@@ -10394,7 +10410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="10" t="s">
         <v>275</v>
       </c>
@@ -10477,7 +10493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="10" t="s">
         <v>277</v>
       </c>
@@ -10560,7 +10576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="10" t="s">
         <v>279</v>
       </c>
@@ -10643,7 +10659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="10" t="s">
         <v>281</v>
       </c>
@@ -10726,7 +10742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="10" t="s">
         <v>283</v>
       </c>
@@ -10809,7 +10825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="10" t="s">
         <v>285</v>
       </c>
@@ -10892,7 +10908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="10" t="s">
         <v>287</v>
       </c>
@@ -10975,7 +10991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
         <v>289</v>
       </c>
@@ -11058,7 +11074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="10" t="s">
         <v>291</v>
       </c>
@@ -11141,7 +11157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="10" t="s">
         <v>293</v>
       </c>
@@ -11224,7 +11240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
         <v>295</v>
       </c>
@@ -11307,7 +11323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="10" t="s">
         <v>297</v>
       </c>
@@ -11390,7 +11406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
         <v>299</v>
       </c>
@@ -11473,7 +11489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="10" t="s">
         <v>301</v>
       </c>
@@ -11556,7 +11572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="10" t="s">
         <v>303</v>
       </c>
@@ -11639,7 +11655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="10" t="s">
         <v>305</v>
       </c>
@@ -11722,7 +11738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="10" t="s">
         <v>307</v>
       </c>
@@ -11805,7 +11821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="10" t="s">
         <v>309</v>
       </c>
@@ -11888,7 +11904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="10" t="s">
         <v>311</v>
       </c>
@@ -11971,7 +11987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="10" t="s">
         <v>313</v>
       </c>
@@ -12054,7 +12070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="10" t="s">
         <v>315</v>
       </c>
@@ -12137,7 +12153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="10" t="s">
         <v>317</v>
       </c>
@@ -12220,7 +12236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="10" t="s">
         <v>319</v>
       </c>
@@ -12303,7 +12319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="10" t="s">
         <v>321</v>
       </c>
@@ -12386,7 +12402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="10" t="s">
         <v>323</v>
       </c>
@@ -12469,7 +12485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="10" t="s">
         <v>325</v>
       </c>
@@ -12552,7 +12568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
         <v>327</v>
       </c>
@@ -12635,7 +12651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="10" t="s">
         <v>329</v>
       </c>
@@ -12718,7 +12734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="10" t="s">
         <v>331</v>
       </c>
@@ -12801,7 +12817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="10" t="s">
         <v>333</v>
       </c>
@@ -12884,7 +12900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="10" t="s">
         <v>335</v>
       </c>
@@ -12967,7 +12983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="10" t="s">
         <v>337</v>
       </c>
@@ -13050,7 +13066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="10" t="s">
         <v>339</v>
       </c>
@@ -13133,7 +13149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="10" t="s">
         <v>341</v>
       </c>
@@ -13216,7 +13232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="10" t="s">
         <v>343</v>
       </c>
@@ -13299,7 +13315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="10" t="s">
         <v>345</v>
       </c>
@@ -13382,7 +13398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="10" t="s">
         <v>347</v>
       </c>
@@ -13465,7 +13481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="10" t="s">
         <v>349</v>
       </c>
@@ -13548,7 +13564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
         <v>351</v>
       </c>
@@ -13631,7 +13647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="10" t="s">
         <v>353</v>
       </c>
@@ -13714,7 +13730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="10" t="s">
         <v>355</v>
       </c>
@@ -13797,7 +13813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="10" t="s">
         <v>357</v>
       </c>
@@ -13880,7 +13896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="10" t="s">
         <v>359</v>
       </c>
@@ -13963,7 +13979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="10" t="s">
         <v>361</v>
       </c>
@@ -14046,7 +14062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="10" t="s">
         <v>363</v>
       </c>
@@ -14129,7 +14145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
         <v>365</v>
       </c>
@@ -14212,7 +14228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="10" t="s">
         <v>367</v>
       </c>
@@ -14295,7 +14311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="10" t="s">
         <v>369</v>
       </c>
@@ -14378,7 +14394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="10" t="s">
         <v>371</v>
       </c>
@@ -14461,7 +14477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="10" t="s">
         <v>373</v>
       </c>
@@ -14544,7 +14560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="10" t="s">
         <v>375</v>
       </c>
@@ -14627,7 +14643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="10" t="s">
         <v>377</v>
       </c>
@@ -14710,7 +14726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="10" t="s">
         <v>379</v>
       </c>
@@ -14793,7 +14809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="10" t="s">
         <v>381</v>
       </c>
@@ -14876,7 +14892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="10" t="s">
         <v>383</v>
       </c>
@@ -14959,7 +14975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="10" t="s">
         <v>385</v>
       </c>
@@ -15042,7 +15058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
         <v>387</v>
       </c>
@@ -15125,7 +15141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="10" t="s">
         <v>389</v>
       </c>
@@ -15208,7 +15224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="10" t="s">
         <v>391</v>
       </c>
@@ -15291,7 +15307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="10" t="s">
         <v>393</v>
       </c>
@@ -15374,7 +15390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="10" t="s">
         <v>395</v>
       </c>
@@ -15457,7 +15473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="10" t="s">
         <v>397</v>
       </c>
@@ -15540,7 +15556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="10" t="s">
         <v>399</v>
       </c>
@@ -15623,7 +15639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="10" t="s">
         <v>401</v>
       </c>
@@ -15706,7 +15722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="10" t="s">
         <v>403</v>
       </c>
@@ -15789,7 +15805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="10" t="s">
         <v>405</v>
       </c>
@@ -15872,7 +15888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="10" t="s">
         <v>407</v>
       </c>
@@ -15955,7 +15971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="10" t="s">
         <v>409</v>
       </c>
@@ -16038,7 +16054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="10" t="s">
         <v>411</v>
       </c>
@@ -16121,7 +16137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="10" t="s">
         <v>413</v>
       </c>
@@ -16204,7 +16220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="10" t="s">
         <v>415</v>
       </c>
@@ -16287,7 +16303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="10" t="s">
         <v>417</v>
       </c>
@@ -16370,7 +16386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="10" t="s">
         <v>419</v>
       </c>
@@ -16453,7 +16469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="10" t="s">
         <v>421</v>
       </c>
@@ -16536,7 +16552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="10" t="s">
         <v>423</v>
       </c>
@@ -16619,7 +16635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
         <v>425</v>
       </c>
@@ -16702,7 +16718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="10" t="s">
         <v>427</v>
       </c>
@@ -16785,7 +16801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="10" t="s">
         <v>429</v>
       </c>
@@ -16868,7 +16884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="10" t="s">
         <v>431</v>
       </c>
@@ -16951,7 +16967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="10" t="s">
         <v>433</v>
       </c>
@@ -17034,7 +17050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="10" t="s">
         <v>435</v>
       </c>
@@ -17117,7 +17133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="10" t="s">
         <v>437</v>
       </c>
@@ -17200,7 +17216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="10" t="s">
         <v>439</v>
       </c>
@@ -17283,7 +17299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="10" t="s">
         <v>441</v>
       </c>
@@ -17366,7 +17382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="10" t="s">
         <v>443</v>
       </c>
@@ -17449,7 +17465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="10" t="s">
         <v>445</v>
       </c>
@@ -17532,7 +17548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="10" t="s">
         <v>447</v>
       </c>
@@ -17615,7 +17631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="10" t="s">
         <v>449</v>
       </c>
@@ -17698,7 +17714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="10" t="s">
         <v>451</v>
       </c>
@@ -17781,7 +17797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="10" t="s">
         <v>453</v>
       </c>
@@ -17864,7 +17880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="10" t="s">
         <v>455</v>
       </c>
@@ -17947,7 +17963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="10" t="s">
         <v>457</v>
       </c>
@@ -18030,7 +18046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="10" t="s">
         <v>459</v>
       </c>
@@ -18113,7 +18129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="10" t="s">
         <v>461</v>
       </c>
@@ -18196,7 +18212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:27" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27"/>
@@ -18224,7 +18240,7 @@
       <c r="Z197" s="27"/>
       <c r="AA197" s="27"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A198" s="28" t="s">
         <v>463</v>
       </c>
@@ -18240,7 +18256,7 @@
       <c r="U198" s="29"/>
       <c r="V198" s="29"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A199" s="28" t="s">
         <v>464</v>
       </c>
@@ -18256,7 +18272,7 @@
       <c r="U199" s="29"/>
       <c r="V199" s="29"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A200" s="28" t="s">
         <v>465</v>
       </c>
@@ -18272,7 +18288,7 @@
       <c r="U200" s="29"/>
       <c r="V200" s="29"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A201" s="28" t="s">
         <v>466</v>
       </c>
@@ -18288,7 +18304,7 @@
       <c r="U201" s="29"/>
       <c r="V201" s="29"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A202" s="28" t="s">
         <v>467</v>
       </c>
@@ -18304,7 +18320,7 @@
       <c r="U202" s="29"/>
       <c r="V202" s="29"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A203" s="28" t="s">
         <v>468</v>
       </c>
@@ -18320,7 +18336,7 @@
       <c r="U203" s="29"/>
       <c r="V203" s="29"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A204" s="28" t="s">
         <v>469</v>
       </c>
@@ -18336,7 +18352,7 @@
       <c r="U204" s="29"/>
       <c r="V204" s="29"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A205" s="28" t="s">
         <v>470</v>
       </c>
@@ -18352,7 +18368,7 @@
       <c r="U205" s="29"/>
       <c r="V205" s="29"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A206" s="28" t="s">
         <v>471</v>
       </c>
@@ -18368,7 +18384,7 @@
       <c r="U206" s="29"/>
       <c r="V206" s="29"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A207" s="28" t="s">
         <v>472</v>
       </c>
@@ -18384,59 +18400,36 @@
       <c r="U207" s="29"/>
       <c r="V207" s="29"/>
     </row>
-    <row r="209" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" s="30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" s="30"/>
     </row>
-    <row r="211" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B211" s="31" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="212" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="B213" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C213"/>
-      <c r="D213"/>
-      <c r="E213"/>
-      <c r="F213"/>
-      <c r="G213"/>
-      <c r="H213"/>
-      <c r="I213"/>
-      <c r="J213"/>
-      <c r="K213"/>
-      <c r="L213"/>
-    </row>
-    <row r="214" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B214" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="C214"/>
-      <c r="D214"/>
-      <c r="E214"/>
-      <c r="F214"/>
-      <c r="G214"/>
-      <c r="H214"/>
-      <c r="I214"/>
-      <c r="J214"/>
-      <c r="K214"/>
-      <c r="L214"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B214" r:id="rId1" xr:uid="{08DCE345-945C-4782-B911-C158BA5E8436}"/>
-    <hyperlink ref="B213" r:id="rId2" xr:uid="{7AB5FFB2-678F-4099-8C3D-FF472D88E629}"/>
-    <hyperlink ref="B211" r:id="rId3" xr:uid="{74D004AB-CF97-48D9-A555-E63D3143C48F}"/>
+    <hyperlink ref="B213" r:id="rId1" xr:uid="{32127564-A1C7-454C-A1D5-968D5E3C3C83}"/>
+    <hyperlink ref="B211" r:id="rId2" xr:uid="{36AF919A-E15F-40D1-B657-D187F1BC17C5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <headerFooter>
+    <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF Restricted Use - À usage restreint</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/DDAf_2024_Groupements_de_pays.xlsx
+++ b/DDAf_2024_Groupements_de_pays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEEEDBC-21E3-48CA-B570-D2E0EEC31427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51217196-C921-416B-BB42-84B5B05662F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DE55C32A-3508-449D-A2E8-52F34801CE48}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE6AA7D4-2132-49FD-AB75-2AF82D13A3B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -2041,20 +2041,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D72FA33F-DC8F-4EED-BA8D-FF80EB53D9D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B02D338-3232-4053-9E2B-197DA0164BC0}">
   <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.1796875" customWidth="1"/>
-    <col min="3" max="12" width="18.1796875" style="29" customWidth="1"/>
-    <col min="13" max="27" width="18.1796875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="12" width="18.140625" style="29" customWidth="1"/>
+    <col min="13" max="27" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -2082,7 +2082,7 @@
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
     </row>
-    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -2112,7 +2112,7 @@
       <c r="Z2" s="6"/>
       <c r="AA2" s="6"/>
     </row>
-    <row r="3" spans="1:27" ht="31.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>28</v>
       </c>
@@ -2278,7 +2278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>43</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>56</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>61</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>65</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>67</v>
       </c>
@@ -2693,7 +2693,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>72</v>
       </c>
@@ -2776,7 +2776,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>74</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>79</v>
       </c>
@@ -2942,7 +2942,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>83</v>
       </c>
@@ -3025,7 +3025,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>86</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>88</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>93</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>95</v>
       </c>
@@ -3357,7 +3357,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>100</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>102</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>104</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>106</v>
       </c>
@@ -3689,7 +3689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>108</v>
       </c>
@@ -3772,7 +3772,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>110</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>112</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>114</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>116</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>118</v>
       </c>
@@ -4187,7 +4187,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>120</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>122</v>
       </c>
@@ -4353,7 +4353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>125</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>127</v>
       </c>
@@ -4519,7 +4519,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>129</v>
       </c>
@@ -4602,7 +4602,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>131</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>133</v>
       </c>
@@ -4768,7 +4768,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>135</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>137</v>
       </c>
@@ -4934,7 +4934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>139</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>141</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>143</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>145</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>147</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>149</v>
       </c>
@@ -5432,7 +5432,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>152</v>
       </c>
@@ -5515,7 +5515,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>154</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>156</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>158</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>160</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>162</v>
       </c>
@@ -5930,7 +5930,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>164</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>167</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>169</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>171</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>173</v>
       </c>
@@ -6345,7 +6345,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>177</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>179</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>181</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>183</v>
       </c>
@@ -6677,7 +6677,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>185</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>187</v>
       </c>
@@ -6843,7 +6843,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>189</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>191</v>
       </c>
@@ -7009,7 +7009,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>193</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>195</v>
       </c>
@@ -7175,7 +7175,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>197</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>199</v>
       </c>
@@ -7341,7 +7341,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>201</v>
       </c>
@@ -7424,7 +7424,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>203</v>
       </c>
@@ -7507,7 +7507,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>205</v>
       </c>
@@ -7590,7 +7590,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>207</v>
       </c>
@@ -7673,7 +7673,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>209</v>
       </c>
@@ -7756,7 +7756,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>211</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>213</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>215</v>
       </c>
@@ -8003,7 +8003,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>217</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>219</v>
       </c>
@@ -8169,7 +8169,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>221</v>
       </c>
@@ -8252,7 +8252,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>223</v>
       </c>
@@ -8335,7 +8335,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>225</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>227</v>
       </c>
@@ -8501,7 +8501,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>229</v>
       </c>
@@ -8584,7 +8584,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>231</v>
       </c>
@@ -8667,7 +8667,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>233</v>
       </c>
@@ -8750,7 +8750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>235</v>
       </c>
@@ -8833,7 +8833,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>237</v>
       </c>
@@ -8916,7 +8916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>239</v>
       </c>
@@ -8999,7 +8999,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>241</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>243</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>245</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>247</v>
       </c>
@@ -9331,7 +9331,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>249</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>251</v>
       </c>
@@ -9497,7 +9497,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>253</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>255</v>
       </c>
@@ -9663,7 +9663,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>257</v>
       </c>
@@ -9746,7 +9746,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>259</v>
       </c>
@@ -9829,7 +9829,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>261</v>
       </c>
@@ -9912,7 +9912,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>263</v>
       </c>
@@ -9995,7 +9995,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>265</v>
       </c>
@@ -10078,7 +10078,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>267</v>
       </c>
@@ -10161,7 +10161,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>269</v>
       </c>
@@ -10244,7 +10244,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>271</v>
       </c>
@@ -10327,7 +10327,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>273</v>
       </c>
@@ -10410,7 +10410,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>275</v>
       </c>
@@ -10493,7 +10493,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>277</v>
       </c>
@@ -10576,7 +10576,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>279</v>
       </c>
@@ -10659,7 +10659,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>281</v>
       </c>
@@ -10742,7 +10742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>283</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>285</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>287</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>289</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>291</v>
       </c>
@@ -11157,7 +11157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="10" t="s">
         <v>293</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="10" t="s">
         <v>295</v>
       </c>
@@ -11323,7 +11323,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="10" t="s">
         <v>297</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="10" t="s">
         <v>299</v>
       </c>
@@ -11489,7 +11489,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="10" t="s">
         <v>301</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="10" t="s">
         <v>303</v>
       </c>
@@ -11655,7 +11655,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="10" t="s">
         <v>305</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="10" t="s">
         <v>307</v>
       </c>
@@ -11821,7 +11821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="10" t="s">
         <v>309</v>
       </c>
@@ -11904,7 +11904,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="10" t="s">
         <v>311</v>
       </c>
@@ -11987,7 +11987,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="10" t="s">
         <v>313</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="10" t="s">
         <v>315</v>
       </c>
@@ -12153,7 +12153,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="10" t="s">
         <v>317</v>
       </c>
@@ -12236,7 +12236,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="10" t="s">
         <v>319</v>
       </c>
@@ -12319,7 +12319,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="10" t="s">
         <v>321</v>
       </c>
@@ -12402,7 +12402,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="10" t="s">
         <v>323</v>
       </c>
@@ -12485,7 +12485,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="10" t="s">
         <v>325</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="10" t="s">
         <v>327</v>
       </c>
@@ -12651,7 +12651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="10" t="s">
         <v>329</v>
       </c>
@@ -12734,7 +12734,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="10" t="s">
         <v>331</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="10" t="s">
         <v>333</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="10" t="s">
         <v>335</v>
       </c>
@@ -12983,7 +12983,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="10" t="s">
         <v>337</v>
       </c>
@@ -13066,7 +13066,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="10" t="s">
         <v>339</v>
       </c>
@@ -13149,7 +13149,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="10" t="s">
         <v>341</v>
       </c>
@@ -13232,7 +13232,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="10" t="s">
         <v>343</v>
       </c>
@@ -13315,7 +13315,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="10" t="s">
         <v>345</v>
       </c>
@@ -13398,7 +13398,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="10" t="s">
         <v>347</v>
       </c>
@@ -13481,7 +13481,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="10" t="s">
         <v>349</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="10" t="s">
         <v>351</v>
       </c>
@@ -13647,7 +13647,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="10" t="s">
         <v>353</v>
       </c>
@@ -13730,7 +13730,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="10" t="s">
         <v>355</v>
       </c>
@@ -13813,7 +13813,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="10" t="s">
         <v>357</v>
       </c>
@@ -13896,7 +13896,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="10" t="s">
         <v>359</v>
       </c>
@@ -13979,7 +13979,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="10" t="s">
         <v>361</v>
       </c>
@@ -14062,7 +14062,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="10" t="s">
         <v>363</v>
       </c>
@@ -14145,7 +14145,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="10" t="s">
         <v>365</v>
       </c>
@@ -14228,7 +14228,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="10" t="s">
         <v>367</v>
       </c>
@@ -14311,7 +14311,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="10" t="s">
         <v>369</v>
       </c>
@@ -14394,7 +14394,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="10" t="s">
         <v>371</v>
       </c>
@@ -14477,7 +14477,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="10" t="s">
         <v>373</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="10" t="s">
         <v>375</v>
       </c>
@@ -14643,7 +14643,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="10" t="s">
         <v>377</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="10" t="s">
         <v>379</v>
       </c>
@@ -14809,7 +14809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="10" t="s">
         <v>381</v>
       </c>
@@ -14892,7 +14892,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="10" t="s">
         <v>383</v>
       </c>
@@ -14975,7 +14975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="10" t="s">
         <v>385</v>
       </c>
@@ -15058,7 +15058,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="10" t="s">
         <v>387</v>
       </c>
@@ -15141,7 +15141,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="10" t="s">
         <v>389</v>
       </c>
@@ -15224,7 +15224,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="10" t="s">
         <v>391</v>
       </c>
@@ -15307,7 +15307,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="10" t="s">
         <v>393</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="10" t="s">
         <v>395</v>
       </c>
@@ -15473,7 +15473,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="10" t="s">
         <v>397</v>
       </c>
@@ -15556,7 +15556,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="10" t="s">
         <v>399</v>
       </c>
@@ -15639,7 +15639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="10" t="s">
         <v>401</v>
       </c>
@@ -15722,7 +15722,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="10" t="s">
         <v>403</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="10" t="s">
         <v>405</v>
       </c>
@@ -15888,7 +15888,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="10" t="s">
         <v>407</v>
       </c>
@@ -15971,7 +15971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="10" t="s">
         <v>409</v>
       </c>
@@ -16054,7 +16054,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="10" t="s">
         <v>411</v>
       </c>
@@ -16137,7 +16137,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="10" t="s">
         <v>413</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="10" t="s">
         <v>415</v>
       </c>
@@ -16303,7 +16303,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="10" t="s">
         <v>417</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="10" t="s">
         <v>419</v>
       </c>
@@ -16469,7 +16469,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="10" t="s">
         <v>421</v>
       </c>
@@ -16552,7 +16552,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="10" t="s">
         <v>423</v>
       </c>
@@ -16635,7 +16635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="10" t="s">
         <v>425</v>
       </c>
@@ -16718,7 +16718,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="10" t="s">
         <v>427</v>
       </c>
@@ -16801,7 +16801,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="10" t="s">
         <v>429</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="10" t="s">
         <v>431</v>
       </c>
@@ -16967,7 +16967,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="10" t="s">
         <v>433</v>
       </c>
@@ -17050,7 +17050,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="10" t="s">
         <v>435</v>
       </c>
@@ -17133,7 +17133,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="10" t="s">
         <v>437</v>
       </c>
@@ -17216,7 +17216,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="10" t="s">
         <v>439</v>
       </c>
@@ -17299,7 +17299,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="10" t="s">
         <v>441</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="10" t="s">
         <v>443</v>
       </c>
@@ -17465,7 +17465,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="10" t="s">
         <v>445</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="10" t="s">
         <v>447</v>
       </c>
@@ -17631,7 +17631,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="10" t="s">
         <v>449</v>
       </c>
@@ -17714,7 +17714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="10" t="s">
         <v>451</v>
       </c>
@@ -17797,7 +17797,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="10" t="s">
         <v>453</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="10" t="s">
         <v>455</v>
       </c>
@@ -17963,7 +17963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:27" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="10" t="s">
         <v>457</v>
       </c>
@@ -18046,7 +18046,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="10" t="s">
         <v>459</v>
       </c>
@@ -18129,7 +18129,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:27" s="17" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="10" t="s">
         <v>461</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="197" spans="1:27" s="24" customFormat="1" ht="14" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:27" s="24" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="27"/>
@@ -18240,7 +18240,7 @@
       <c r="Z197" s="27"/>
       <c r="AA197" s="27"/>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A198" s="28" t="s">
         <v>463</v>
       </c>
@@ -18256,7 +18256,7 @@
       <c r="U198" s="29"/>
       <c r="V198" s="29"/>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A199" s="28" t="s">
         <v>464</v>
       </c>
@@ -18272,7 +18272,7 @@
       <c r="U199" s="29"/>
       <c r="V199" s="29"/>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A200" s="28" t="s">
         <v>465</v>
       </c>
@@ -18288,7 +18288,7 @@
       <c r="U200" s="29"/>
       <c r="V200" s="29"/>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A201" s="28" t="s">
         <v>466</v>
       </c>
@@ -18304,7 +18304,7 @@
       <c r="U201" s="29"/>
       <c r="V201" s="29"/>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A202" s="28" t="s">
         <v>467</v>
       </c>
@@ -18320,7 +18320,7 @@
       <c r="U202" s="29"/>
       <c r="V202" s="29"/>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A203" s="28" t="s">
         <v>468</v>
       </c>
@@ -18336,7 +18336,7 @@
       <c r="U203" s="29"/>
       <c r="V203" s="29"/>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A204" s="28" t="s">
         <v>469</v>
       </c>
@@ -18352,7 +18352,7 @@
       <c r="U204" s="29"/>
       <c r="V204" s="29"/>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A205" s="28" t="s">
         <v>470</v>
       </c>
@@ -18368,7 +18368,7 @@
       <c r="U205" s="29"/>
       <c r="V205" s="29"/>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A206" s="28" t="s">
         <v>471</v>
       </c>
@@ -18384,7 +18384,7 @@
       <c r="U206" s="29"/>
       <c r="V206" s="29"/>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A207" s="28" t="s">
         <v>472</v>
       </c>
@@ -18400,31 +18400,31 @@
       <c r="U207" s="29"/>
       <c r="V207" s="29"/>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="30" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="30"/>
     </row>
-    <row r="211" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B211" s="31" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B212" s="1"/>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B213" s="1" t="s">
         <v>475</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B213" r:id="rId1" xr:uid="{32127564-A1C7-454C-A1D5-968D5E3C3C83}"/>
-    <hyperlink ref="B211" r:id="rId2" xr:uid="{36AF919A-E15F-40D1-B657-D187F1BC17C5}"/>
+    <hyperlink ref="B213" r:id="rId1" xr:uid="{358A8A73-FB22-4879-8D79-3BFFCABF7F15}"/>
+    <hyperlink ref="B211" r:id="rId2" xr:uid="{052CDE43-604D-49F4-B750-ADFDB768DC69}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/DDAf_2024_Groupements_de_pays.xlsx
+++ b/DDAf_2024_Groupements_de_pays.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51217196-C921-416B-BB42-84B5B05662F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27784F5A-83F4-49FE-BC50-8B5A17AD6D52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FE6AA7D4-2132-49FD-AB75-2AF82D13A3B2}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{4E85E46E-5201-4D28-86A9-E1AC8CBFFB48}"/>
   </bookViews>
   <sheets>
     <sheet name="Groupements de pays" sheetId="1" r:id="rId1"/>
@@ -2041,7 +2041,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B02D338-3232-4053-9E2B-197DA0164BC0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B29BDF-BA33-4FE5-BE0A-A07A5F41D5B5}">
   <dimension ref="A1:AA213"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -18423,8 +18423,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B213" r:id="rId1" xr:uid="{358A8A73-FB22-4879-8D79-3BFFCABF7F15}"/>
-    <hyperlink ref="B211" r:id="rId2" xr:uid="{052CDE43-604D-49F4-B750-ADFDB768DC69}"/>
+    <hyperlink ref="B213" r:id="rId1" xr:uid="{087AF994-E05D-4B79-A272-81BD85DD24CC}"/>
+    <hyperlink ref="B211" r:id="rId2" xr:uid="{102AF513-77B0-4E5A-B1FA-0590D554539D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
